--- a/藍芽傳輸規劃_20210512.xlsx
+++ b/藍芽傳輸規劃_20210512.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="藍芽command" sheetId="1" r:id="rId1"/>
@@ -3396,10 +3396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KeyboardIOEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "Instruments":[{"SoundBank":string}, ...]
 }</t>
@@ -3615,10 +3611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02010301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>裡面的每一個string就是一個按壓事件，例如"127,48"(127按鍵音，以48的音量按下)，目前暫定一個訊息只能記錄一則事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3681,10 +3673,6 @@
   </si>
   <si>
     <t>02000702</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02120702</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3945,22 +3933,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WritePlayRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AckWritetPlayRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02100833</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02020833</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "FileName":string
 }</t>
@@ -4107,6 +4079,34 @@
 json為2
 binary為3
 ackbinary為4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyboardIOEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02000833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02110301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02120702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestPlayRecordFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AckRequestPlayRecordFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4603,9 +4603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M293"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K236" sqref="K236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4667,18 +4667,18 @@
       <c r="C2" s="16"/>
       <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>747</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="L2" s="16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4695,7 +4695,7 @@
         <v>204</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K4" t="s">
         <v>197</v>
@@ -4731,7 +4731,7 @@
         <v>206</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K5" t="s">
         <v>197</v>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K6" t="s">
         <v>192</v>
@@ -4960,52 +4960,52 @@
     <row r="12" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="L13" t="s">
         <v>807</v>
-      </c>
-      <c r="L13" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" t="s">
+        <v>812</v>
+      </c>
+      <c r="C14" t="s">
         <v>813</v>
       </c>
-      <c r="C14" t="s">
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" t="s">
         <v>815</v>
-      </c>
-      <c r="L14" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -5531,7 +5531,7 @@
         <v>230</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5564,7 +5564,7 @@
         <v>231</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -5797,10 +5797,10 @@
         <v>796</v>
       </c>
       <c r="C42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -5821,10 +5821,10 @@
         <v>39</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="L42" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -5833,16 +5833,16 @@
         <v>797</v>
       </c>
       <c r="C43" t="s">
-        <v>798</v>
+        <v>946</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>845</v>
+        <v>949</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5857,10 +5857,10 @@
         <v>39</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L43" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -8324,7 +8324,7 @@
         <v>2</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K122" s="1" t="s">
         <v>782</v>
@@ -8360,7 +8360,7 @@
         <v>3</v>
       </c>
       <c r="J123" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K123" s="1" t="s">
         <v>41</v>
@@ -8393,7 +8393,7 @@
         <v>3</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K124" s="1" t="s">
         <v>197</v>
@@ -8429,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>483</v>
@@ -8561,7 +8561,7 @@
         <v>9</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K129" s="1" t="s">
         <v>193</v>
@@ -8594,7 +8594,7 @@
         <v>9</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K130" s="1" t="s">
         <v>197</v>
@@ -8630,7 +8630,7 @@
         <v>10</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K131" s="1" t="s">
         <v>483</v>
@@ -8897,7 +8897,7 @@
         <v>15</v>
       </c>
       <c r="J139" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>193</v>
@@ -8930,7 +8930,7 @@
         <v>15</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>40</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>56</v>
@@ -9070,7 +9070,7 @@
         <v>2</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>193</v>
@@ -9103,7 +9103,7 @@
         <v>2</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>40</v>
@@ -9139,7 +9139,7 @@
         <v>3</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>60</v>
@@ -9626,7 +9626,7 @@
         <v>267</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E164">
         <v>2</v>
@@ -9659,7 +9659,7 @@
         <v>268</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -9680,10 +9680,10 @@
         <v>39</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -9761,7 +9761,7 @@
         <v>271</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E168">
         <v>2</v>
@@ -9782,10 +9782,10 @@
         <v>39</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="L168" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -9797,7 +9797,7 @@
         <v>460</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>859</v>
+        <v>950</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -9818,10 +9818,10 @@
         <v>39</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L169" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -10040,7 +10040,7 @@
         <v>39</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L177" s="1" t="s">
         <v>531</v>
@@ -10055,7 +10055,7 @@
         <v>277</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -10076,10 +10076,10 @@
         <v>39</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="L178" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -10088,10 +10088,10 @@
         <v>106</v>
       </c>
       <c r="C179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -10112,22 +10112,22 @@
         <v>39</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L179" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A180" s="28"/>
       <c r="B180" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C180" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -10152,13 +10152,13 @@
     <row r="181" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C181" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -10177,10 +10177,10 @@
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L181" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -10192,7 +10192,7 @@
         <v>316</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>533</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E183">
         <v>2</v>
@@ -10249,10 +10249,10 @@
         <v>39</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="L183" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -10264,7 +10264,7 @@
         <v>786</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E184">
         <v>2</v>
@@ -10297,7 +10297,7 @@
         <v>787</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E185">
         <v>2</v>
@@ -10318,10 +10318,10 @@
         <v>39</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="L185" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -10333,7 +10333,7 @@
         <v>317</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E186">
         <v>3</v>
@@ -10351,13 +10351,13 @@
         <v>5</v>
       </c>
       <c r="J186" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L186" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
@@ -10369,7 +10369,7 @@
         <v>462</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E187">
         <v>4</v>
@@ -10387,7 +10387,7 @@
         <v>5</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>197</v>
@@ -10403,7 +10403,7 @@
         <v>789</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -10421,13 +10421,13 @@
         <v>6</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="L188" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -10457,7 +10457,7 @@
         <v>7</v>
       </c>
       <c r="J189" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>193</v>
@@ -10490,7 +10490,7 @@
         <v>7</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>197</v>
@@ -10508,7 +10508,7 @@
         <v>788</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E191">
         <v>2</v>
@@ -10526,10 +10526,10 @@
         <v>8</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -10541,7 +10541,7 @@
         <v>464</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -10565,7 +10565,7 @@
         <v>794</v>
       </c>
       <c r="L192" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -10577,7 +10577,7 @@
         <v>284</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -10610,7 +10610,7 @@
         <v>534</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -10634,7 +10634,7 @@
         <v>794</v>
       </c>
       <c r="L194" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -10722,13 +10722,13 @@
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" t="s">
+        <v>837</v>
+      </c>
+      <c r="C198" t="s">
         <v>838</v>
       </c>
-      <c r="C198" t="s">
-        <v>839</v>
-      </c>
       <c r="D198" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -10749,10 +10749,10 @@
         <v>39</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="L198" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
@@ -10764,7 +10764,7 @@
         <v>286</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E199">
         <v>2</v>
@@ -11201,7 +11201,7 @@
         <v>292</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E212">
         <v>2</v>
@@ -11234,7 +11234,7 @@
         <v>472</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -11255,10 +11255,10 @@
         <v>39</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L213" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -11336,7 +11336,7 @@
         <v>294</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -11369,7 +11369,7 @@
         <v>474</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -11390,10 +11390,10 @@
         <v>39</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L217" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -11641,7 +11641,7 @@
         <v>535</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -11672,7 +11672,7 @@
         <v>536</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -11691,10 +11691,10 @@
       </c>
       <c r="J226" s="4"/>
       <c r="K226" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L226" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
@@ -11706,7 +11706,7 @@
         <v>539</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -11737,7 +11737,7 @@
         <v>540</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -11756,10 +11756,10 @@
       </c>
       <c r="J228" s="4"/>
       <c r="K228" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="L228" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
@@ -11787,7 +11787,7 @@
         <v>298</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -11820,7 +11820,7 @@
         <v>476</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -11841,10 +11841,10 @@
         <v>39</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L231" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -11856,7 +11856,7 @@
         <v>307</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E232">
         <v>2</v>
@@ -11877,10 +11877,10 @@
         <v>39</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="233" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -11892,7 +11892,7 @@
         <v>477</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E233">
         <v>2</v>
@@ -11925,7 +11925,7 @@
         <v>308</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -11946,10 +11946,10 @@
         <v>39</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="235" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -11961,7 +11961,7 @@
         <v>478</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E235">
         <v>2</v>
@@ -11982,10 +11982,10 @@
         <v>39</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L235" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="236" spans="1:12" ht="48.6" x14ac:dyDescent="0.3">
@@ -11994,16 +11994,16 @@
         <v>791</v>
       </c>
       <c r="C236" t="s">
-        <v>916</v>
+        <v>951</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="E236">
         <v>2</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -12025,16 +12025,16 @@
         <v>792</v>
       </c>
       <c r="C237" t="s">
-        <v>917</v>
+        <v>952</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="E237">
         <v>2</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -12062,7 +12062,7 @@
         <v>318</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="E238">
         <v>3</v>
@@ -12080,13 +12080,13 @@
         <v>52</v>
       </c>
       <c r="J238" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L238" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="239" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
@@ -12098,7 +12098,7 @@
         <v>479</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="E239">
         <v>4</v>
@@ -12116,7 +12116,7 @@
         <v>52</v>
       </c>
       <c r="J239" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K239" s="1" t="s">
         <v>197</v>
@@ -12132,7 +12132,7 @@
         <v>319</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E240">
         <v>2</v>
@@ -12150,13 +12150,13 @@
         <v>53</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="L240" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="241" spans="1:12" ht="113.4" x14ac:dyDescent="0.3">
@@ -12186,7 +12186,7 @@
         <v>54</v>
       </c>
       <c r="J241" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>193</v>
@@ -12219,7 +12219,7 @@
         <v>54</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K242" s="1" t="s">
         <v>197</v>
@@ -12235,7 +12235,7 @@
         <v>321</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="E243">
         <v>2</v>
@@ -12253,10 +12253,10 @@
         <v>55</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="244" spans="1:12" ht="64.8" x14ac:dyDescent="0.3">
@@ -12268,7 +12268,7 @@
         <v>481</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="E244">
         <v>2</v>
@@ -12289,10 +12289,10 @@
         <v>39</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="L244" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="245" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -12458,14 +12458,14 @@
         <v>160</v>
       </c>
       <c r="B267" t="s">
+        <v>800</v>
+      </c>
+      <c r="C267" t="s">
         <v>801</v>
-      </c>
-      <c r="C267" t="s">
-        <v>802</v>
       </c>
       <c r="J267" s="4"/>
       <c r="L267" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K269" t="s">
         <v>513</v>
@@ -12658,10 +12658,10 @@
         <v>39</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="97.2" x14ac:dyDescent="0.3">
@@ -12711,16 +12711,16 @@
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="27"/>
       <c r="B278" t="s">
+        <v>803</v>
+      </c>
+      <c r="C278" t="s">
         <v>804</v>
       </c>
-      <c r="C278" t="s">
+      <c r="J278" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L278" t="s">
         <v>805</v>
-      </c>
-      <c r="J278" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L278" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -12854,116 +12854,116 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C2" t="s">
         <v>823</v>
       </c>
-      <c r="B2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>824</v>
-      </c>
-      <c r="D2" t="s">
-        <v>825</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B3" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="C3" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="D3" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="F3" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B4" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="C4" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="D4" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E4" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B5" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="C5" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B6" t="s">
+        <v>935</v>
+      </c>
+      <c r="C6" t="s">
+        <v>933</v>
+      </c>
+      <c r="D6" t="s">
+        <v>934</v>
+      </c>
+      <c r="E6" t="s">
+        <v>938</v>
+      </c>
+      <c r="F6" t="s">
         <v>939</v>
-      </c>
-      <c r="B6" t="s">
-        <v>942</v>
-      </c>
-      <c r="C6" t="s">
-        <v>940</v>
-      </c>
-      <c r="D6" t="s">
-        <v>941</v>
-      </c>
-      <c r="E6" t="s">
-        <v>945</v>
-      </c>
-      <c r="F6" t="s">
-        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -12976,7 +12976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
